--- a/medicine/Enfance/Percival_Everett/Percival_Everett.xlsx
+++ b/medicine/Enfance/Percival_Everett/Percival_Everett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Percival Everett, né le 22 décembre 1956 à Fort Gordon (en), en Géorgie, est un écrivain et professeur américain. Auteur polyvalent, ses écrits se situent à la frontière de plusieurs genres littéraires.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études supérieures en biochimie et en philosophie à l'université de Miami, reconnaissant avoir été influencé par les écrits de Ludwig Wittgenstein, notamment ses théories sémantiques. Il obtient des diplômes universitaires en littérature et philosophie.
 Il amorce sa carrière en littérature en 1983, alors qu'il termine une maîtrise à l'université Brown par la publication de son roman Suder qui a pour héros un joueur professionnel de baseball. Il publie ensuite Walk Me to the Distance (1985) sur un soldat de retour de la guerre du Viêt Nam. Ses romans suivants cherchent à réactualiser la mythologie grecque. Pendant cette première période de sa carrière d'écrivain, Everett publie aussi plusieurs nouvelles, reprises ultérieurement en recueils. 
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-(en) Suder, 1983
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Suder, 1983
 (en) Walk Me to the Distance, 1985
 (en) Cutting Lisa, 1986
 (en) For Her Dark Skin, 1990
@@ -572,52 +591,224 @@
 (en) So Much Blue, 2017
 (en) Telephone, 2020
 Châtiment, Actes Sud, coll. « Actes noirs », 2024 ((en) The Trees, 2021), trad. Anne-Laure Tissut, 368 p.  (ISBN 978-2-330-18616-6)
-(en) Dr. No, 2022
-Recueils de nouvelles
-(en) The Weather and Women Treat Me Fair, 1987
+(en) Dr. No, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Percival_Everett</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Percival_Everett</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Weather and Women Treat Me Fair, 1987
 (en) Big Picture, 1996
-(en) Damned If I Do, 2004
-Nouvelles isolées
-(en) Alluvial Deposits, 1998
-(en) True Romance, 1999
-Poésie
-(en) re:f (gesture), 2006
-Nageant nageurs nageant, Presses universitaires de Rouen et du Havre, 2013 ((en) Swimming Swimmers Swimming, 2010), 87 p.  (ISBN 979-10-240-0042-8)
-Ouvrage de littérature d'enfance et de jeunesse
-(en) The One That Got Away, 1992
-Autres publications
-(en) A History of the African-American people (proposed) by Strom Thurmond, as told to Percival Everett and James Kincaid, 2004Coécrit avec James Kincaid.
+(en) Damned If I Do, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Percival_Everett</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Percival_Everett</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles isolées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Alluvial Deposits, 1998
+(en) True Romance, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Percival_Everett</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Percival_Everett</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) re:f (gesture), 2006
+Nageant nageurs nageant, Presses universitaires de Rouen et du Havre, 2013 ((en) Swimming Swimmers Swimming, 2010), 87 p.  (ISBN 979-10-240-0042-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Percival_Everett</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Percival_Everett</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) The One That Got Away, 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Percival_Everett</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Percival_Everett</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) A History of the African-American people (proposed) by Strom Thurmond, as told to Percival Everett and James Kincaid, 2004Coécrit avec James Kincaid.
 (en) My California: Journeys by Great Writers, 2004
 (en) Percival Everett by Virgil Russell, 2013
 (en) The Jefferson Bible, 2013</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Percival_Everett</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Percival_Everett</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Son roman Effacement est adapté dans le film American Fiction (2023).
 </t>
